--- a/data/processed/mobile_breakoff_rate_higher.xlsx
+++ b/data/processed/mobile_breakoff_rate_higher.xlsx
@@ -474,8 +474,10 @@
       <c r="A2" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" t="n">
-        <v>3069</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -492,8 +494,10 @@
           <t>Practioner</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -503,8 +507,10 @@
       <c r="A3" t="n">
         <v>2011</v>
       </c>
-      <c r="B3" t="n">
-        <v>513</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -528,8 +534,10 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>15292</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15292</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -555,8 +563,10 @@
       <c r="A5" t="n">
         <v>2012</v>
       </c>
-      <c r="B5" t="n">
-        <v>3396</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -565,8 +575,10 @@
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="b">
-        <v>1</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -576,8 +588,10 @@
       <c r="A6" t="n">
         <v>2014</v>
       </c>
-      <c r="B6" t="n">
-        <v>2000</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -594,8 +608,10 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -605,8 +621,10 @@
       <c r="A7" t="n">
         <v>2016</v>
       </c>
-      <c r="B7" t="n">
-        <v>1678</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1678</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -623,8 +641,10 @@
           <t xml:space="preserve">Mobile Internet User </t>
         </is>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -634,8 +654,10 @@
       <c r="A8" t="n">
         <v>2012</v>
       </c>
-      <c r="B8" t="n">
-        <v>58768</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>58768</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -661,8 +683,10 @@
       <c r="A9" t="n">
         <v>2016</v>
       </c>
-      <c r="B9" t="n">
-        <v>4689</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4689</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -688,8 +712,10 @@
       <c r="A10" t="n">
         <v>2014</v>
       </c>
-      <c r="B10" t="n">
-        <v>820</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>820</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -706,8 +732,10 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -736,8 +764,10 @@
       <c r="A12" t="n">
         <v>2012</v>
       </c>
-      <c r="B12" t="n">
-        <v>1892</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1892</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -754,8 +784,10 @@
           <t>Russian Mobile Web User (18+)</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -765,8 +797,10 @@
       <c r="A13" t="n">
         <v>2014</v>
       </c>
-      <c r="B13" t="n">
-        <v>1721</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1721</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -792,8 +826,10 @@
       <c r="A14" t="n">
         <v>2012</v>
       </c>
-      <c r="B14" t="n">
-        <v>947</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -810,8 +846,10 @@
           <t>Dutch Internet User (18+)</t>
         </is>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -821,8 +859,10 @@
       <c r="A15" t="n">
         <v>2010</v>
       </c>
-      <c r="B15" t="n">
-        <v>4913</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -839,8 +879,10 @@
           <t>German Internet User (18+)</t>
         </is>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -848,8 +890,10 @@
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
-        <v>38841</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>38841</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -866,8 +910,10 @@
           <t>Students</t>
         </is>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
       </c>
       <c r="G16" t="n">
         <v>1</v>
